--- a/DRM_Output/5_Option_Pricing.xlsx
+++ b/DRM_Output/5_Option_Pricing.xlsx
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3944.455672420808</v>
+        <v>1919.607664224521</v>
       </c>
       <c r="D2" t="n">
-        <v>4081.300048828125</v>
+        <v>4069.60009765625</v>
       </c>
       <c r="E2" t="n">
-        <v>4081.300048828125</v>
+        <v>4069.60009765625</v>
       </c>
       <c r="F2" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>1472.019594442754</v>
+        <v>435.4871395823422</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
@@ -517,19 +517,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3924.100103506372</v>
+        <v>1899.310449059998</v>
       </c>
       <c r="D3" t="n">
-        <v>4081.300048828125</v>
+        <v>4069.60009765625</v>
       </c>
       <c r="E3" t="n">
-        <v>4081.300048828125</v>
+        <v>4069.60009765625</v>
       </c>
       <c r="F3" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>1472.019594442754</v>
+        <v>435.4871395823422</v>
       </c>
       <c r="H3" t="n">
         <v>6</v>
@@ -547,19 +547,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3942.643355943929</v>
+        <v>1917.717564708172</v>
       </c>
       <c r="D4" t="n">
-        <v>4081.300048828125</v>
+        <v>4069.60009765625</v>
       </c>
       <c r="E4" t="n">
-        <v>4081.300048828125</v>
+        <v>4069.60009765625</v>
       </c>
       <c r="F4" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>1472.019594442754</v>
+        <v>435.4871395823422</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3922.287787029557</v>
+        <v>1897.420349543724</v>
       </c>
       <c r="D5" t="n">
-        <v>4081.300048828125</v>
+        <v>4069.60009765625</v>
       </c>
       <c r="E5" t="n">
-        <v>4081.300048828125</v>
+        <v>4069.60009765625</v>
       </c>
       <c r="F5" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>1472.019594442754</v>
+        <v>435.4871395823422</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>

--- a/DRM_Output/5_Option_Pricing.xlsx
+++ b/DRM_Output/5_Option_Pricing.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1919.607664224521</v>
+        <v>129.1329560818676</v>
       </c>
       <c r="D2" t="n">
         <v>4069.60009765625</v>
@@ -499,7 +499,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>435.4871395823422</v>
+        <v>25.39758289676531</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1899.310449059998</v>
+        <v>108.8357409173448</v>
       </c>
       <c r="D3" t="n">
         <v>4069.60009765625</v>
@@ -529,7 +529,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>435.4871395823422</v>
+        <v>25.39758289676531</v>
       </c>
       <c r="H3" t="n">
         <v>6</v>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1917.717564708172</v>
+        <v>129.0140328844778</v>
       </c>
       <c r="D4" t="n">
         <v>4069.60009765625</v>
@@ -559,7 +559,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>435.4871395823422</v>
+        <v>25.39758289676531</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1897.420349543724</v>
+        <v>108.716817720032</v>
       </c>
       <c r="D5" t="n">
         <v>4069.60009765625</v>
@@ -589,7 +589,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>435.4871395823422</v>
+        <v>25.39758289676531</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>

--- a/DRM_Output/5_Option_Pricing.xlsx
+++ b/DRM_Output/5_Option_Pricing.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D2" t="n">
         <v>4069.60009765625</v>
@@ -499,7 +499,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>25.39758289676531</v>
+        <v>25.39758374955786</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>108.8357409173448</v>
+        <v>108.8357448922532</v>
       </c>
       <c r="D3" t="n">
         <v>4069.60009765625</v>
@@ -529,7 +529,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>25.39758289676531</v>
+        <v>25.39758374955786</v>
       </c>
       <c r="H3" t="n">
         <v>6</v>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>129.0140328844778</v>
+        <v>129.0140368554139</v>
       </c>
       <c r="D4" t="n">
         <v>4069.60009765625</v>
@@ -559,7 +559,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>25.39758289676531</v>
+        <v>25.39758374955786</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>108.716817720032</v>
+        <v>108.7168216909682</v>
       </c>
       <c r="D5" t="n">
         <v>4069.60009765625</v>
@@ -589,7 +589,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>25.39758289676531</v>
+        <v>25.39758374955786</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
